--- a/comp_iden_backend/calendar-backend/target/classes/hackathons.xlsx
+++ b/comp_iden_backend/calendar-backend/target/classes/hackathons.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DevRev Forge</t>
+          <t>FOSSASIA 2024 Hackathon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>05/04/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://devrev-forge.devfolio.co</t>
+          <t>https://fossasia-hackathon.devfolio.co</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://devrev-forge.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://fossasia-hackathon.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -514,17 +514,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skill Titan</t>
+          <t>Oofy Hacks 1.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>13/04/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://skill-titans.devfolio.co</t>
+          <t>https://oofy-hacks.devfolio.co</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://skill-titans.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2a9e839eb79244c89a108a247e3dd577%2Fassets%2Fcover%2F950.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2a9e839eb79244c89a108a247e3dd577%2Fassets%2Fcover%2F950.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2a9e839eb79244c89a108a247e3dd577%2Fassets%2Fcover%2F950.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2a9e839eb79244c89a108a247e3dd577%2Fassets%2Fcover%2F950.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://oofy-hacks.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F70c81a521aae494ebd76b39f3a98f143%2Fassets%2Fcover%2F245.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F70c81a521aae494ebd76b39f3a98f143%2Fassets%2Fcover%2F245.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F70c81a521aae494ebd76b39f3a98f143%2Fassets%2Fcover%2F245.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F70c81a521aae494ebd76b39f3a98f143%2Fassets%2Fcover%2F245.jpeg&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,12 +551,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elevate</t>
+          <t>Hackathon Boost! - Bootcamp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>Live</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://elevate2024.devfolio.co</t>
+          <t>https://hackathon-boost.devfolio.co</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://elevate2024.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9650b1f1b7b346ea94223d16161ece38%2Fassets%2Fcover%2F360.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9650b1f1b7b346ea94223d16161ece38%2Fassets%2Fcover%2F360.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9650b1f1b7b346ea94223d16161ece38%2Fassets%2Fcover%2F360.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9650b1f1b7b346ea94223d16161ece38%2Fassets%2Fcover%2F360.jpeg&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://hackathon-boost.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fed4221063fb64027936c4a70603a4f05%2Fassets%2Fcover%2F975.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fed4221063fb64027936c4a70603a4f05%2Fassets%2Fcover%2F975.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fed4221063fb64027936c4a70603a4f05%2Fassets%2Fcover%2F975.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fed4221063fb64027936c4a70603a4f05%2Fassets%2Fcover%2F975.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -588,17 +588,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HackForTomorrow 2023</t>
+          <t>Collegium Aleo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>06/04/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://hft.devfolio.co</t>
+          <t>https://collegium-aleo.devfolio.co</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://hft.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fc47a9ac034684f1ea4f44b922a17d7e0%2Fassets%2Fcover%2F622.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fc47a9ac034684f1ea4f44b922a17d7e0%2Fassets%2Fcover%2F622.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fc47a9ac034684f1ea4f44b922a17d7e0%2Fassets%2Fcover%2F622.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fc47a9ac034684f1ea4f44b922a17d7e0%2Fassets%2Fcover%2F622.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://collegium-aleo.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1a36a698d4034388bd7073b9caf6b0cf%2Fassets%2Fcover%2F607.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1a36a698d4034388bd7073b9caf6b0cf%2Fassets%2Fcover%2F607.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1a36a698d4034388bd7073b9caf6b0cf%2Fassets%2Fcover%2F607.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1a36a698d4034388bd7073b9caf6b0cf%2Fassets%2Fcover%2F607.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -625,17 +625,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DUHacks 3.0</t>
+          <t>hackEDCode 2.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>12/04/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://duhacks3.devfolio.co</t>
+          <t>https://hackedcode-2.devfolio.co</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://duhacks3.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe3df994a7da74267adf5d37b6f385369%2Fassets%2Fcover%2F552.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe3df994a7da74267adf5d37b6f385369%2Fassets%2Fcover%2F552.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe3df994a7da74267adf5d37b6f385369%2Fassets%2Fcover%2F552.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe3df994a7da74267adf5d37b6f385369%2Fassets%2Fcover%2F552.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://hackedcode-2.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2d8751beac4049038634855352bf51bf%2Fassets%2Fcover%2F204.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2d8751beac4049038634855352bf51bf%2Fassets%2Fcover%2F204.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2d8751beac4049038634855352bf51bf%2Fassets%2Fcover%2F204.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F2d8751beac4049038634855352bf51bf%2Fassets%2Fcover%2F204.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -662,17 +662,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HackTheChain 2.0</t>
+          <t>NextNiche</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>13/04/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://hackthechain2.devfolio.co</t>
+          <t>https://nextniche.devfolio.co</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://hackthechain2.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1d86fa5a66544eae8cb9a21e9adf6457%2Fassets%2Fcover%2F156.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1d86fa5a66544eae8cb9a21e9adf6457%2Fassets%2Fcover%2F156.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1d86fa5a66544eae8cb9a21e9adf6457%2Fassets%2Fcover%2F156.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1d86fa5a66544eae8cb9a21e9adf6457%2Fassets%2Fcover%2F156.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://nextniche.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F3bf31316f52141baab073acc903c8748%2Fassets%2Fcover%2F883.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F3bf31316f52141baab073acc903c8748%2Fassets%2Fcover%2F883.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F3bf31316f52141baab073acc903c8748%2Fassets%2Fcover%2F883.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F3bf31316f52141baab073acc903c8748%2Fassets%2Fcover%2F883.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -699,12 +699,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HackNITR 5.0</t>
+          <t>Hack-o-relay 3.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02/03/2024</t>
+          <t>04/04/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://hacknitr5.devfolio.co</t>
+          <t>https://hackorelay-3.devfolio.co</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://hacknitr5.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F55e8099a6fc149b5bc0571ac823f0551%2Fassets%2Fcover%2F744.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F55e8099a6fc149b5bc0571ac823f0551%2Fassets%2Fcover%2F744.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F55e8099a6fc149b5bc0571ac823f0551%2Fassets%2Fcover%2F744.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F55e8099a6fc149b5bc0571ac823f0551%2Fassets%2Fcover%2F744.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://hackorelay-3.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F609b3128a35041d2b412c8727071cccc%2Fassets%2Fcover%2F476.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F609b3128a35041d2b412c8727071cccc%2Fassets%2Fcover%2F476.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F609b3128a35041d2b412c8727071cccc%2Fassets%2Fcover%2F476.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F609b3128a35041d2b412c8727071cccc%2Fassets%2Fcover%2F476.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -736,17 +736,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Google Ideate Ideathon</t>
+          <t>SheHacks 7.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://google-ideate-ideathon.devfolio.co</t>
+          <t>https://shehacks-7.devfolio.co</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://google-ideate-ideathon.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe42010dbd6fd4e8ba4686665f50e7a64%2Fassets%2Fcover%2F393.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe42010dbd6fd4e8ba4686665f50e7a64%2Fassets%2Fcover%2F393.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe42010dbd6fd4e8ba4686665f50e7a64%2Fassets%2Fcover%2F393.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe42010dbd6fd4e8ba4686665f50e7a64%2Fassets%2Fcover%2F393.jpeg&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://shehacks-7.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa4964f04b01e406d9741344fba411aad%2Fassets%2Fcover%2F295.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa4964f04b01e406d9741344fba411aad%2Fassets%2Fcover%2F295.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa4964f04b01e406d9741344fba411aad%2Fassets%2Fcover%2F295.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa4964f04b01e406d9741344fba411aad%2Fassets%2Fcover%2F295.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -773,12 +773,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IdeaGem 1.0 - Tech Ideathon</t>
+          <t>Solve-A-Thon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>09/04/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://ideagem-tech-ideathon.devfolio.co</t>
+          <t>https://solveathon.devfolio.co</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://ideagem-tech-ideathon.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fadfc9265bd5645159035d577a125e2c4%2Fassets%2Fcover%2F339.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fadfc9265bd5645159035d577a125e2c4%2Fassets%2Fcover%2F339.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fadfc9265bd5645159035d577a125e2c4%2Fassets%2Fcover%2F339.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fadfc9265bd5645159035d577a125e2c4%2Fassets%2Fcover%2F339.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://solveathon.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89fb397fe5e9426e8b2740105214293f%2Fassets%2Fcover%2F951.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89fb397fe5e9426e8b2740105214293f%2Fassets%2Fcover%2F951.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89fb397fe5e9426e8b2740105214293f%2Fassets%2Fcover%2F951.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89fb397fe5e9426e8b2740105214293f%2Fassets%2Fcover%2F951.jpeg&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -810,12 +810,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CODE reCET</t>
+          <t>HackVerse 2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>06/04/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://code-recet.devfolio.co</t>
+          <t>https://hackverse2024.devfolio.co</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://code-recet.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9e97cb89e0a34956af9162ece3afa21e%2Fassets%2Fcover%2F884.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9e97cb89e0a34956af9162ece3afa21e%2Fassets%2Fcover%2F884.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9e97cb89e0a34956af9162ece3afa21e%2Fassets%2Fcover%2F884.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F9e97cb89e0a34956af9162ece3afa21e%2Fassets%2Fcover%2F884.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://hackverse2024.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd8cec14871b74d99a655b2acddb39d6b%2Fassets%2Fcover%2F821.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd8cec14871b74d99a655b2acddb39d6b%2Fassets%2Fcover%2F821.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd8cec14871b74d99a655b2acddb39d6b%2Fassets%2Fcover%2F821.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd8cec14871b74d99a655b2acddb39d6b%2Fassets%2Fcover%2F821.jpeg&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -847,12 +847,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BFCET Hack 1.O</t>
+          <t>Hack-O-Fest</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Live</t>
+          <t>06/04/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://bfcet-hack-o.devfolio.co</t>
+          <t>https://hackofestnitp.devfolio.co</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://bfcet-hack-o.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F61f2def16bd04ba18d885340f73c3d86%2Fassets%2Fcover%2F515.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F61f2def16bd04ba18d885340f73c3d86%2Fassets%2Fcover%2F515.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F61f2def16bd04ba18d885340f73c3d86%2Fassets%2Fcover%2F515.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F61f2def16bd04ba18d885340f73c3d86%2Fassets%2Fcover%2F515.jpeg&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://hackofestnitp.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F748cbead053240aeba0e3f0fe1181ba1%2Fassets%2Fcover%2F388.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F748cbead053240aeba0e3f0fe1181ba1%2Fassets%2Fcover%2F388.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F748cbead053240aeba0e3f0fe1181ba1%2Fassets%2Fcover%2F388.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F748cbead053240aeba0e3f0fe1181ba1%2Fassets%2Fcover%2F388.jpeg&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -884,17 +884,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hackistica '24</t>
+          <t>Hacklipse4.O</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Live</t>
+          <t>06/04/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://hackistica-24.devfolio.co</t>
+          <t>https://hacklipse4.devfolio.co</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://hackistica-24.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F80b6ad4353964d60bec4026521b292ad%2Fassets%2Fcover%2F68.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F80b6ad4353964d60bec4026521b292ad%2Fassets%2Fcover%2F68.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F80b6ad4353964d60bec4026521b292ad%2Fassets%2Fcover%2F68.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F80b6ad4353964d60bec4026521b292ad%2Fassets%2Fcover%2F68.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://hacklipse4.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fee92543c83c54ef89519f6f612ad5b0a%2Fassets%2Fcover%2F69.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fee92543c83c54ef89519f6f612ad5b0a%2Fassets%2Fcover%2F69.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fee92543c83c54ef89519f6f612ad5b0a%2Fassets%2Fcover%2F69.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fee92543c83c54ef89519f6f612ad5b0a%2Fassets%2Fcover%2F69.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -921,17 +921,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DevRev Forge</t>
+          <t>Digitalization for Disruptive Technologies</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>12/04/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://devrev-forge.devfolio.co</t>
+          <t>https://digitalization-for-disruptive-technologies.devfolio.co</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://devrev-forge.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F13c95f978203433d8f81a7c73bcb03e0%2Fassets%2Fcover%2F956.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://digitalization-for-disruptive-technologies.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0e8aedce923c4ae89445d2997f6f815c%2Fassets%2Fcover%2F981.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0e8aedce923c4ae89445d2997f6f815c%2Fassets%2Fcover%2F981.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0e8aedce923c4ae89445d2997f6f815c%2Fassets%2Fcover%2F981.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0e8aedce923c4ae89445d2997f6f815c%2Fassets%2Fcover%2F981.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -958,17 +958,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Crescendo CRCE Hackathon 2024</t>
+          <t>FOSSASIA 2024 Hackathon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>05/04/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -978,12 +978,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://crescendo-crce-hackathon.devfolio.co</t>
+          <t>https://fossasia-hackathon.devfolio.co</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://crescendo-crce-hackathon.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F75dfa7048f484ec38c3a79c114ef1448%2Fassets%2Fcover%2F582.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F75dfa7048f484ec38c3a79c114ef1448%2Fassets%2Fcover%2F582.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F75dfa7048f484ec38c3a79c114ef1448%2Fassets%2Fcover%2F582.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F75dfa7048f484ec38c3a79c114ef1448%2Fassets%2Fcover%2F582.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://fossasia-hackathon.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F89603d4f80164e9f83cdf9e4a2b17eea%2Fassets%2Fcover%2F593.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -995,12 +995,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INNOVO 2024</t>
+          <t>DimoHack_VITAP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>13/04/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://innovo.devfolio.co</t>
+          <t>https://dimohackvitap.devfolio.co</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://innovo.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F118ab6eb2d0343e8be3d4ee7566bd23c%2Fassets%2Fcover%2F587.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F118ab6eb2d0343e8be3d4ee7566bd23c%2Fassets%2Fcover%2F587.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F118ab6eb2d0343e8be3d4ee7566bd23c%2Fassets%2Fcover%2F587.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F118ab6eb2d0343e8be3d4ee7566bd23c%2Fassets%2Fcover%2F587.jpeg&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://dimohackvitap.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe17017f72f444d30a98c5518b95c3fcd%2Fassets%2Fcover%2F690.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe17017f72f444d30a98c5518b95c3fcd%2Fassets%2Fcover%2F690.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe17017f72f444d30a98c5518b95c3fcd%2Fassets%2Fcover%2F690.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fe17017f72f444d30a98c5518b95c3fcd%2Fassets%2Fcover%2F690.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1032,17 +1032,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Blue Bit 2024</t>
+          <t>HackVSIT 5.0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>19/04/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://the-blue-bit-2.devfolio.co</t>
+          <t>https://hackvsit-5.devfolio.co</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://the-blue-bit-2.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F925e4f82feba45e3b79ef17798a51b45%2Fassets%2Fcover%2F363.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F925e4f82feba45e3b79ef17798a51b45%2Fassets%2Fcover%2F363.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F925e4f82feba45e3b79ef17798a51b45%2Fassets%2Fcover%2F363.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F925e4f82feba45e3b79ef17798a51b45%2Fassets%2Fcover%2F363.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://hackvsit-5.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F18fddda3e0fd4b1a8ceddd5292582249%2Fassets%2Fcover%2F16.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F18fddda3e0fd4b1a8ceddd5292582249%2Fassets%2Fcover%2F16.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F18fddda3e0fd4b1a8ceddd5292582249%2Fassets%2Fcover%2F16.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F18fddda3e0fd4b1a8ceddd5292582249%2Fassets%2Fcover%2F16.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1069,12 +1069,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DevsHouse '24</t>
+          <t>KJSCE Devopia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>13/04/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://devshouse-1.devfolio.co</t>
+          <t>https://devopia.devfolio.co</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://devshouse-1.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0ad824b6969f4446b6ae83e6ee563562%2Fassets%2Fcover%2F102.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0ad824b6969f4446b6ae83e6ee563562%2Fassets%2Fcover%2F102.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0ad824b6969f4446b6ae83e6ee563562%2Fassets%2Fcover%2F102.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F0ad824b6969f4446b6ae83e6ee563562%2Fassets%2Fcover%2F102.jpeg&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://devopia.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fbeccf1c4339c496e9647855afede2063%2Fassets%2Fcover%2F952.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fbeccf1c4339c496e9647855afede2063%2Fassets%2Fcover%2F952.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fbeccf1c4339c496e9647855afede2063%2Fassets%2Fcover%2F952.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fbeccf1c4339c496e9647855afede2063%2Fassets%2Fcover%2F952.jpeg&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TECH-A-THON</t>
+          <t>GDSC WoW Hackathon</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>13/04/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://techathon-3.devfolio.co</t>
+          <t>https://wowhackathon.devfolio.co</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://techathon-3.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fb271342aa23340adb09aa3b44aed776f%2Fassets%2Fcover%2F795.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fb271342aa23340adb09aa3b44aed776f%2Fassets%2Fcover%2F795.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fb271342aa23340adb09aa3b44aed776f%2Fassets%2Fcover%2F795.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fb271342aa23340adb09aa3b44aed776f%2Fassets%2Fcover%2F795.jpeg&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://wowhackathon.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F126ea4067fd74076a8fd128060531d29%2Fassets%2Fcover%2F50.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F126ea4067fd74076a8fd128060531d29%2Fassets%2Fcover%2F50.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F126ea4067fd74076a8fd128060531d29%2Fassets%2Fcover%2F50.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F126ea4067fd74076a8fd128060531d29%2Fassets%2Fcover%2F50.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1143,12 +1143,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESIGNATHON 2024</t>
+          <t>Möbius</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>12/04/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://designathon24.devfolio.co</t>
+          <t>https://nimbus-open-exhibition.devfolio.co</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://designathon24.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1cc5b87a4da742308398da9637eaa320%2Fassets%2Fcover%2F490.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1cc5b87a4da742308398da9637eaa320%2Fassets%2Fcover%2F490.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1cc5b87a4da742308398da9637eaa320%2Fassets%2Fcover%2F490.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F1cc5b87a4da742308398da9637eaa320%2Fassets%2Fcover%2F490.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://nimbus-open-exhibition.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F6035b10ca71b4503910f9fc3d4a85f53%2Fassets%2Fcover%2F340.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F6035b10ca71b4503910f9fc3d4a85f53%2Fassets%2Fcover%2F340.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F6035b10ca71b4503910f9fc3d4a85f53%2Fassets%2Fcover%2F340.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F6035b10ca71b4503910f9fc3d4a85f53%2Fassets%2Fcover%2F340.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1180,12 +1180,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SYN3RGY 1.0</t>
+          <t>VIGYAAN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>15/04/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://synrgy-1.devfolio.co</t>
+          <t>https://vigyaan.devfolio.co</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://synrgy-1.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fba2e221938754f0a94f26e333760aed0%2Fassets%2Fcover%2F956.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fba2e221938754f0a94f26e333760aed0%2Fassets%2Fcover%2F956.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fba2e221938754f0a94f26e333760aed0%2Fassets%2Fcover%2F956.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fba2e221938754f0a94f26e333760aed0%2Fassets%2Fcover%2F956.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://vigyaan.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F73303b956ee54b9d919a604d66897306%2Fassets%2Fcover%2F114.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F73303b956ee54b9d919a604d66897306%2Fassets%2Fcover%2F114.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F73303b956ee54b9d919a604d66897306%2Fassets%2Fcover%2F114.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F73303b956ee54b9d919a604d66897306%2Fassets%2Fcover%2F114.jpeg&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1217,12 +1217,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Makeathon6</t>
+          <t>Code rave</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24/02/2024</t>
+          <t>12/04/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://makeathon6.devfolio.co</t>
+          <t>https://code-rave.devfolio.co</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://makeathon6.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd1ba119ddecc49f6a5bd510241b0304e%2Fassets%2Fcover%2F392.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd1ba119ddecc49f6a5bd510241b0304e%2Fassets%2Fcover%2F392.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd1ba119ddecc49f6a5bd510241b0304e%2Fassets%2Fcover%2F392.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fd1ba119ddecc49f6a5bd510241b0304e%2Fassets%2Fcover%2F392.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://code-rave.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F69e5bf0c8d064003ba88096953597d7e%2Fassets%2Fcover%2F628.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F69e5bf0c8d064003ba88096953597d7e%2Fassets%2Fcover%2F628.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F69e5bf0c8d064003ba88096953597d7e%2Fassets%2Fcover%2F628.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F69e5bf0c8d064003ba88096953597d7e%2Fassets%2Fcover%2F628.png&amp;w=1440&amp;q=100 1440w</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1254,12 +1254,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MOZOHACK 5.0</t>
+          <t>How to Ace Hackathons - The Winner's Guide</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>05/04/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1274,34 +1274,34 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://mozohack-5.devfolio.co</t>
+          <t>https://hack2skill.com/hack/h2s-vision-panel?utm_source=homepage&amp;utm_medium=promotional</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://mozohack-5.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Ffbb4147d7ae64ae0bbe29e00505dc7dc%2Fassets%2Fcover%2F754.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Ffbb4147d7ae64ae0bbe29e00505dc7dc%2Fassets%2Fcover%2F754.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Ffbb4147d7ae64ae0bbe29e00505dc7dc%2Fassets%2Fcover%2F754.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Ffbb4147d7ae64ae0bbe29e00505dc7dc%2Fassets%2Fcover%2F754.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-03-20T06%3A15%3A18.190Z-WhatsApp%20Image%202024-03-15%20at%2017.07.14.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Devfolio</t>
+          <t>Hack2skill</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Social Summer Of Code Season 3</t>
+          <t>DTDL HackDFest 5.0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30/03/2024</t>
+          <t>24/04/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1311,34 +1311,34 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://ssocseason3.devfolio.co</t>
+          <t>https://hack2skill.com/hack/dtdl-hackfest5?utm_source=h2shomepage&amp;utm_medium=h2shomepage</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://ssocseason3.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F87c3fbebe86e430c98de46dcabe9a839%2Fassets%2Fcover%2F289.jpeg&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F87c3fbebe86e430c98de46dcabe9a839%2Fassets%2Fcover%2F289.jpeg&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F87c3fbebe86e430c98de46dcabe9a839%2Fassets%2Fcover%2F289.jpeg&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2F87c3fbebe86e430c98de46dcabe9a839%2Fassets%2Fcover%2F289.jpeg&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-03-26T06%3A17%3A03.902Z-homepage%20%283%29.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Devfolio</t>
+          <t>Hack2skill</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ByteVerse'24</t>
+          <t>SRM Hackathon 8.0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>04/04/2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1348,29 +1348,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://byteversenitp.devfolio.co</t>
+          <t>https://hack2skill.com/hack/teamsrmhackathon?utm_source=homepage&amp;utm_medium=promotional</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://byteversenitp.devfolio.co/_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa0b40e069e4749d393bda69fc0ac92bc%2Fassets%2Fcover%2F834.png&amp;w=360&amp;q=100 360w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa0b40e069e4749d393bda69fc0ac92bc%2Fassets%2Fcover%2F834.png&amp;w=768&amp;q=100 768w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa0b40e069e4749d393bda69fc0ac92bc%2Fassets%2Fcover%2F834.png&amp;w=1024&amp;q=100 1024w, /_next/image?url=https%3A%2F%2Fassets.devfolio.co%2Fhackathons%2Fa0b40e069e4749d393bda69fc0ac92bc%2Fassets%2Fcover%2F834.png&amp;w=1440&amp;q=100 1440w</t>
+          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-03-22T07%3A17%3A37.707Z-Hackathon%208.0%20Poster%20%28808%20x%20673%20px%29_20240321_004159_0000.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Devfolio</t>
+          <t>Hack2skill</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KSP Datathon 2024</t>
+          <t>SYNAPSE 2.0 National-Level Hackathon</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>05/04/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1385,12 +1385,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://hack2skill.com/hack/kspdatathon2024?utm_source=homepage&amp;utm_medium=promotional</t>
+          <t>https://hack2skill.com/hack/synapse2-hack?utm_source=homepage&amp;utm_medium=promotional</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-01-17T13%3A09%3A05.823Z-homepage%20ksp%202.png</t>
+          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-03-22T06%3A36%3A14.796Z-Poster%20for%20H2S.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1402,12 +1402,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Harvesting Innovations Hackathon</t>
+          <t>CodHer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>12/04/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://hack2skill.com/hack/hih2024?utm_source=h2shomepage&amp;utm_medium=h2shomepage</t>
+          <t>https://hack2skill.com/hack/acmceg-codher?utm_source=homepage&amp;utm_medium=promotional</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-02-12T12%3A13%3A38.424Z-web%20page%20final%20%28406%20x%20337%20px%29.png</t>
+          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-03-31T05%3A26%3A18.188Z-codher24.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1439,17 +1439,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GenAI Hackathon | APAC Edition</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>08/03/2024</t>
-        </is>
+          <t>Hackfest 2024</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45388</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1459,34 +1457,32 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://hack2skill.com/hack/genai_hackathon_apac_edition?utm_source=h2s_homepage&amp;utm_medium=h2s_listing</t>
+          <t>https://www.knowafest.com/explore/events/2024/03/3007-hackfest-2024-thiagarajar-college-engineering-hackathon-madurai</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-01-29T05%3A27%3A31.328Z-genAi_homepage.png</t>
+          <t>https://www.knowafest.com/files/uploads/WhatsApp%20Image%202024-03-22%20at%2014.58.29-2024033007.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hack2skill</t>
+          <t>Knowafest</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TRC Winter of Code</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>15/02/2024</t>
-        </is>
+          <t>Intellina 2024</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45397</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1496,34 +1492,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://hack2skill.com/hack/trcvitcwoc?utm_source=homepage&amp;utm_medium=promotional</t>
+          <t>https://www.knowafest.com/explore/events/2024/03/2907-intellina-2024-coimbatore-institute-technology-technical-symposium</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2023-12-19T11%3A20%3A57.633Z-Event%20main%20poster.png</t>
+          <t>https://www.knowafest.com/files/uploads/event%20poster-2024032907.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hack2skill</t>
+          <t>Knowafest</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GDSC HackFest</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>21/03/2024</t>
-        </is>
+          <t>HACKIT 3.0 2024</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45384</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1533,34 +1527,32 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://hack2skill.com/hack/gdsc-hackfest?utm_source=homepage&amp;utm_medium=promotional</t>
+          <t>https://www.knowafest.com/explore/events/2024/03/2520-hackit-3-0-2024-sri-venkateswara-college-engineering-sriperumbudur-hackathon</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-02-08T09%3A39%3A16.687Z-IMG-20240201-WA0009.jpg</t>
+          <t>https://www.knowafest.com/files/uploads/HACKIT%203.0-2024032520.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hack2skill</t>
+          <t>Knowafest</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Coherence 1.0</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>23/03/2024</t>
-        </is>
+          <t>INSPIRE'24</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45388</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1570,28 +1562,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://hack2skill.com/hack/mlsccoherence?utm_source=homepage&amp;utm_medium=promotional</t>
+          <t>https://www.knowafest.com/explore/events/2024/03/2512-inspire-24-excel-engineering-college-technical-symposium-komarapalayam</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://s3-h2s-v2.s3.ap-south-1.amazonaws.com/2024-02-12T06%3A20%3A36.668Z-Create.%20Transform.%20Innovate..png</t>
+          <t>https://www.knowafest.com/files/uploads/BROUCHER-2024032512.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hack2skill</t>
+          <t>Knowafest</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Neuronex'24</t>
+          <t>Hackfest 2024</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45353</v>
+        <v>45400</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1605,12 +1597,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/explore/events/2024/02/0801-neuronex-24-velammal-institute-technology-technical-symposium-chennai</t>
+          <t>https://www.knowafest.com/explore/events/2024/03/1942-hackfest-2024-vit-university-chennai-campus-hackathon</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/files/uploads/WIN%20PRIZES%20WORTH%20OF%20100000%20(2)-2024020801.jpg</t>
+          <t>https://www.knowafest.com/files/uploads/Hackfest%202024%20updated-2024031942.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1622,11 +1614,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ERSMERONZ'24</t>
+          <t>Ease The Error 4.0</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45352</v>
+        <v>45388</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1640,12 +1632,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/explore/events/2024/02/0521-ersmeronz-24-bannari-amman-institute-technology-technical-symposium-erode</t>
+          <t>https://www.knowafest.com/explore/events/2024/03/1706-ease-error-4-0-sri-venkateswara-college-engineering-sriperumbudur-hackathon</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/files/uploads/ERSMERONZ'24%20-%20MAIN%20POSTER.jpg</t>
+          <t>https://www.knowafest.com/files/uploads/IMG-20240317-WA0004-2024031706.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1657,11 +1649,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hackathon 24</t>
+          <t>NEBULA NEST 2K24</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45343</v>
+        <v>45386</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1675,12 +1667,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/explore/events/2024/02/0612-hackathon-24-saveetha-institute-medical-technical-sciences-engineering-chennai</t>
+          <t>https://www.knowafest.com/explore/events/2024/03/0506-nebula-nest-2k24-m-kumarasamy-college-engineering-autonomous-hackathon-karur</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/files/uploads/hackathon-2024020612.jpg</t>
+          <t>https://www.knowafest.com/files/uploads/WhatsApp%20Image%202024-03-04%20at%209.38.55%20AM-2024030506.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1692,11 +1684,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hackathon'24</t>
+          <t>Hack4Purpose 2024</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45351</v>
+        <v>45469</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1710,46 +1702,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/explore/events/2024/02/0108-hackathon-24-m-kumarasamy-college-engineering-autonomous-karur</t>
+          <t>https://www.knowafest.com/explore/events/2024/02/2312-hack4purpose-2024-dpurpose-foundation-hackathon-chennai</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.knowafest.com/files/uploads/WhatsApp%20Image%202024-01-28%20at%2015.45.36-2024020108.jpeg</t>
+          <t>https://www.knowafest.com/files/uploads/qqq-min-2024022312.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>Knowafest</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>DATATHON'24</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>offline</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://www.knowafest.com/explore/events/2024/01/3101-datathon-24-bannari-amman-institute-technology-national-level-hackathon-erode</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
         <is>
           <t>Knowafest</t>
         </is>
